--- a/results/LR/75Hz_3classes/res_hyperopt.xlsx
+++ b/results/LR/75Hz_3classes/res_hyperopt.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>load</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -465,14 +465,14 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="D2" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'C': 1.0914852758121543, 'tol': 0.0005402336854996799}</t>
+          <t>{'C': 0.5603713251782175, 'tol': 3.161555828991326e-05}</t>
         </is>
       </c>
     </row>
@@ -486,14 +486,14 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="D3" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'C': 1.6918863867456544, 'tol': 5.5019596029036845e-05}</t>
+          <t>{'C': 0.45534865949104847, 'tol': 2.139475987540704e-05}</t>
         </is>
       </c>
     </row>
@@ -510,11 +510,11 @@
         <v>0.58</v>
       </c>
       <c r="D4" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'C': 1.8636182880247791, 'tol': 0.02828062838479841}</t>
+          <t>{'C': 0.4289758413115915, 'tol': 0.0023108256451625504}</t>
         </is>
       </c>
     </row>
@@ -531,11 +531,11 @@
         <v>0.48</v>
       </c>
       <c r="D5" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'C': 0.244449035668507, 'tol': 6.616478197182884e-05}</t>
+          <t>{'C': 0.18913117817552652, 'tol': 8.497974844855017e-05}</t>
         </is>
       </c>
     </row>
@@ -552,11 +552,11 @@
         <v>0.52</v>
       </c>
       <c r="D6" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'C': 1.1198019490998317, 'tol': 0.0009433339266581951}</t>
+          <t>{'C': 2.690571247663803, 'tol': 5.4658989816765434e-05}</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="D7" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'C': 2.680926674517541, 'tol': 0.007346980597180155}</t>
+          <t>{'C': 2.615123424940686, 'tol': 0.06158996432272935}</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="D8" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'C': 0.18607347800870144, 'tol': 0.002018522360959614}</t>
+          <t>{'C': 0.8290308106674763, 'tol': 0.000584224101803623}</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="D9" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'C': 0.6300104688458545, 'tol': 0.0004460802071397958}</t>
+          <t>{'C': 2.0913447240819165, 'tol': 0.0005518578004852624}</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="D10" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'C': 0.41226520819659335, 'tol': 9.077052721079065e-06}</t>
+          <t>{'C': 0.02264551248316406, 'tol': 0.00025440627258507874}</t>
         </is>
       </c>
     </row>
@@ -657,11 +657,11 @@
         <v>0.53</v>
       </c>
       <c r="D11" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'C': 0.07229484667023493, 'tol': 8.272848262894927e-05}</t>
+          <t>{'C': 0.3300970180568728, 'tol': 0.00029897674465860166}</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'C': 0.04438353930871617, 'tol': 4.651043746532448e-06}</t>
+          <t>{'C': 0.03314510423149317, 'tol': 0.0010562886905221358}</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'C': 0.47216994571286736, 'tol': 0.000600566056935319}</t>
+          <t>{'C': 0.2134925259307137, 'tol': 0.19795311339545293}</t>
         </is>
       </c>
     </row>
@@ -717,14 +717,14 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.48</v>
+        <v>0.53</v>
       </c>
       <c r="D14" t="n">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'C': 1.3088212545244782, 'tol': 0.0005152512348898731}</t>
+          <t>{'C': 0.09546978479435828, 'tol': 1.9146803159602948e-05}</t>
         </is>
       </c>
     </row>
@@ -738,14 +738,14 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="D15" t="n">
         <v>0.4</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'C': 0.2704631740718648, 'tol': 8.277560664068678e-06}</t>
+          <t>{'C': 1.1388351852082117, 'tol': 0.011961824973079007}</t>
         </is>
       </c>
     </row>
@@ -759,14 +759,14 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="D16" t="n">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'C': 1.4639714586508052, 'tol': 0.0005457552550741351}</t>
+          <t>{'C': 0.22637505442256753, 'tol': 5.546199562819374e-05}</t>
         </is>
       </c>
     </row>
